--- a/adventOfCode12/adventOfCode12/input.xlsx
+++ b/adventOfCode12/adventOfCode12/input.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffa\source\repos\AdventOfCode\adventOfCode12\adventOfCode12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6880918-131F-4D2B-9701-0BBE878DE71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A9A44F-8B69-4708-BB79-CFD4A3FCD556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="input (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>BC-gt</t>
   </si>
@@ -149,12 +162,192 @@
   </si>
   <si>
     <t>g.addLargeCave(8);</t>
+  </si>
+  <si>
+    <t>0 1 3 1 3 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 1 3 1 3 1 2 5</t>
+  </si>
+  <si>
+    <t>0 1 3 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 1 3 1 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 1 3 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 1 3 1 2 5</t>
+  </si>
+  <si>
+    <t>0 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 3 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 3 1 2 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 2 5</t>
+  </si>
+  <si>
+    <t>0 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 5</t>
+  </si>
+  <si>
+    <t>0 1 5</t>
+  </si>
+  <si>
+    <t>0 2 1 3 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 2 1 3 1 2 5</t>
+  </si>
+  <si>
+    <t>0 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 2 1 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 2 1 2 1 5</t>
+  </si>
+  <si>
+    <t>0 2 1 2 5</t>
+  </si>
+  <si>
+    <t>0 2 1 5</t>
+  </si>
+  <si>
+    <t>0 2 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 1 2 1 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 1 2 5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 1 3 1 2 5 </t>
+  </si>
+  <si>
+    <t>0 1 2 1 3 1 3 1 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 1 5    </t>
+  </si>
+  <si>
+    <t>0 1 2 4 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 4 2 1 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 4 2 5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 5     </t>
+  </si>
+  <si>
+    <t>0 1 3 1 2 1 2 1 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 2 1 2 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 2 1 5  </t>
+  </si>
+  <si>
+    <t>0 1 3 1 2 4 2 1 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 2 4 2 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 2 5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 3 1 2 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 3 1 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 3 1 5    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 5      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 2 1 3 1 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 2 1 5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 2 5    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 3 1 2 1 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 3 1 2 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 3 1 3 1 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 1 3 1 5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 4 2 1 3 1 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 4 2 1 5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 4 2 5    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 2 5      </t>
+  </si>
+  <si>
+    <t>0 1 2 4 2 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 4 2 5</t>
+  </si>
+  <si>
+    <t>0 2 4 2 1 3 1 5</t>
+  </si>
+  <si>
+    <t>0 2 4 2 1 5</t>
+  </si>
+  <si>
+    <t>0 2 4 2 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 2 1 3 1 5 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +662,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -632,8 +831,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -988,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,4 +1736,844 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184E6A0D-54EA-431D-B5A1-78D98B6BD55E}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>LEFT(A1,FIND("-",A1)-1)</f>
+        <v>BC</v>
+      </c>
+      <c r="C1" t="str">
+        <f>RIGHT(A1,LEN(A1)-1-LEN(B1))</f>
+        <v>gt</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"g.addEdge("&amp;VLOOKUP(B1,$F$1:$G$13,2,0)&amp;","&amp;VLOOKUP(C1,$F$1:$G$13,2,0)&amp;");"</f>
+        <v>g.addEdge(1,3);</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B25" si="0">LEFT(A2,FIND("-",A2)-1)</f>
+        <v>gt</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C25" si="1">RIGHT(A2,LEN(A2)-1-LEN(B2))</f>
+        <v>zf</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D25" si="2">"g.addEdge("&amp;VLOOKUP(B2,$F$1:$G$13,2,0)&amp;","&amp;VLOOKUP(C2,$F$1:$G$13,2,0)&amp;");"</f>
+        <v>g.addEdge(3,11);</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>end</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>KH</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(12,5);</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>end</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>BC</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(12,1);</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>so</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>NL</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(9,8);</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>so</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>ly</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(9,7);</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>start</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>BC</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(0,1);</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>NL</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>zf</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(8,11);</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>end</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>LK</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(12,6);</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>LK</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>so</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(6,9);</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>ly</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>KH</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(7,5);</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>NL</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>bt</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(8,2);</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>gt</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>NL</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(3,8);</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>start</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>zf</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(0,11);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>so</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>zf</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(9,11);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>ly</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>BC</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(7,1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>BC</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>zf</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(1,11);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>zf</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>ly</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(11,7);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>ly</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>NL</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(7,8);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>ly</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>LK</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(7,6);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>IA</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>bt</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(4,2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>bt</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>so</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(2,9);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>ui</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>KH</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(10,5);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>gt</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>start</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(3,0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>KH</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>so</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>g.addEdge(5,9);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12461C10-AF6C-45F3-8CDE-0DF7F0E15930}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>